--- a/dtree/outputs/rho_sensitivity.xlsx
+++ b/dtree/outputs/rho_sensitivity.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>882.5568831994666</v>
+        <v>830.2657710182456</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3359.087698156322</v>
+        <v>3294.892210665213</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5564.847834493359</v>
+        <v>5475.920239961741</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7358.155509033922</v>
+        <v>7247.401733403462</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8800.937850179163</v>
+        <v>8672.862771149408</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9959.819247060002</v>
+        <v>9818.644342960697</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10896.04917232223</v>
+        <v>10745.1415582094</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11659.86114624795</v>
+        <v>11501.73749538831</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12290.18353605409</v>
+        <v>12126.6792803139</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12816.47648859229</v>
+        <v>12648.92312705063</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13260.89731364606</v>
+        <v>13090.26478111044</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13640.16071657242</v>
+        <v>13467.16175009139</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +638,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('BTC', 'SOL')</t>
+          <t>('CASH', 'SOL')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13985.89260031374</v>
+        <v>13792.13681850429</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14649.49224271349</v>
+        <v>14389.69501959919</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15278.72108439936</v>
+        <v>15010.34390322776</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15876.85183374683</v>
+        <v>15600.14071109039</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16446.58532395461</v>
+        <v>16161.77997149102</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16990.18893364859</v>
+        <v>16697.52520652756</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17509.59784387856</v>
+        <v>17209.30881893107</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18006.48933417657</v>
+        <v>17698.80556562058</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18482.33753772523</v>
+        <v>18167.48684770996</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>18938.45403239614</v>
+        <v>18616.66106560282</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19376.01815407403</v>
+        <v>19047.50383996991</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19796.09983742966</v>
+        <v>19461.08084704874</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20199.6770078734</v>
+        <v>19858.36525483122</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20587.64898511003</v>
+        <v>20240.25119656828</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20960.84695323601</v>
+        <v>20607.56432136311</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21320.04226062086</v>
+        <v>20961.07017579327</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21665.95310294637</v>
+        <v>21301.48096450006</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21999.24999168972</v>
+        <v>21629.46108910833</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>22320.56030144282</v>
+        <v>21945.63175755543</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22630.4721108727</v>
+        <v>22250.57487831518</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22929.53749530271</v>
+        <v>22544.83639777981</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23218.27538773114</v>
+        <v>22828.92919822953</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23497.17409520939</v>
+        <v>23103.33564409073</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23766.69353573772</v>
+        <v>23368.5098424756</v>
       </c>
     </row>
     <row r="40">
@@ -950,11 +950,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('BTC', 'SOL')</t>
+          <t>('SOL', 'SOL')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>24027.26724494136</v>
+        <v>23639.86064494192</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>24302.01657846828</v>
+        <v>23910.96883985377</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>24568.91154099167</v>
+        <v>24173.47505000066</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>39911.33749583199</v>
+        <v>39280.13900115223</v>
       </c>
     </row>
   </sheetData>

--- a/dtree/outputs/rho_sensitivity.xlsx
+++ b/dtree/outputs/rho_sensitivity.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>830.2657710182456</v>
+        <v>1117.911191187252</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('CASH', 'SOL')</t>
+          <t>('CASH', 'BTC')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3294.892210665213</v>
+        <v>3678.390393574442</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5475.920239961741</v>
+        <v>6028.238788274816</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7247.401733403462</v>
+        <v>7961.788685852841</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8672.862771149408</v>
+        <v>9515.697878995721</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9818.644342960697</v>
+        <v>10758.29109930866</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10745.1415582094</v>
+        <v>11756.3909784408</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11501.73749538831</v>
+        <v>12565.80980669613</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12126.6792803139</v>
+        <v>13229.93716176259</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12648.92312705063</v>
+        <v>13781.51947641487</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13090.26478111044</v>
+        <v>14245.05992379383</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13467.16175009139</v>
+        <v>14638.93304735142</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +638,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('CASH', 'SOL')</t>
+          <t>('BTC', 'SOL')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13792.13681850429</v>
+        <v>15211.89986074792</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14389.69501959919</v>
+        <v>15923.26482345805</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15010.34390322776</v>
+        <v>16599.10622639934</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15600.14071109039</v>
+        <v>17242.70437416959</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16161.77997149102</v>
+        <v>17856.75250142315</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16697.52520652756</v>
+        <v>18443.50513838347</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17209.30881893107</v>
+        <v>19004.88523161054</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17698.80556562058</v>
+        <v>19542.56165720451</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18167.48684770996</v>
+        <v>20058.00550808995</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>18616.66106560282</v>
+        <v>20552.53117192881</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19047.50383996991</v>
+        <v>21027.32650792913</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19461.08084704874</v>
+        <v>21483.47520261846</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19858.36525483122</v>
+        <v>21921.97350460998</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20240.25119656828</v>
+        <v>22343.74290928935</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20607.56432136311</v>
+        <v>22749.63991530488</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20961.07017579327</v>
+        <v>23140.46365448619</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21301.48096450006</v>
+        <v>23516.96196848963</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21629.46108910833</v>
+        <v>23879.83634267903</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>21945.63175755543</v>
+        <v>24229.74599165951</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22250.57487831518</v>
+        <v>24567.3113080572</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22544.83639777981</v>
+        <v>24893.11682701508</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22828.92919822953</v>
+        <v>25207.71381664692</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23103.33564409073</v>
+        <v>25511.62257450789</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23368.5098424756</v>
+        <v>25805.33448855257</v>
       </c>
     </row>
     <row r="40">
@@ -950,11 +950,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('SOL', 'SOL')</t>
+          <t>('BTC', 'SOL')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23639.86064494192</v>
+        <v>26089.3139055937</v>
       </c>
     </row>
     <row r="41">
@@ -963,11 +963,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('SOL', 'SOL')</t>
+          <t>('BTC', 'SOL')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23910.96883985377</v>
+        <v>26363.99983919785</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>24173.47505000066</v>
+        <v>26644.533093483</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>39280.13900115223</v>
+        <v>43403.21323740338</v>
       </c>
     </row>
   </sheetData>
